--- a/20150214_MyComputer/20141012_Information_v0.1.xlsx
+++ b/20150214_MyComputer/20141012_Information_v0.1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="20730" windowHeight="11595" firstSheet="8" activeTab="10"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="20730" windowHeight="11595" firstSheet="8" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Ref" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="20140822_FriendC3" sheetId="9" r:id="rId9"/>
     <sheet name="Data" sheetId="10" r:id="rId10"/>
     <sheet name="Internet" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="Done">Data!$B$3:$B$5</definedName>
@@ -25,12 +26,12 @@
     <definedName name="ValueDone">#REF!</definedName>
     <definedName name="ValueDone1">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1581" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="513">
   <si>
     <t>No.</t>
   </si>
@@ -1515,6 +1516,63 @@
   </si>
   <si>
     <t>https://account.live.com/</t>
+  </si>
+  <si>
+    <t>https://mail.google.com</t>
+  </si>
+  <si>
+    <t>Not change</t>
+  </si>
+  <si>
+    <t>http://us.battle.net/</t>
+  </si>
+  <si>
+    <t>https://wordpress.com</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com</t>
+  </si>
+  <si>
+    <t>Danh sách đá banh</t>
+  </si>
+  <si>
+    <t>Nguyên</t>
+  </si>
+  <si>
+    <t>A Sâm</t>
+  </si>
+  <si>
+    <t>Tooc</t>
+  </si>
+  <si>
+    <t>Tí</t>
+  </si>
+  <si>
+    <t>Sun</t>
+  </si>
+  <si>
+    <t>Ben</t>
+  </si>
+  <si>
+    <t>Dưỡng</t>
+  </si>
+  <si>
+    <t>Khôi Nguyên</t>
+  </si>
+  <si>
+    <t>Hùng</t>
+  </si>
+  <si>
+    <t>Hiếu</t>
+  </si>
+  <si>
+    <t>Tứ</t>
+  </si>
+  <si>
+    <t>Linh</t>
+  </si>
+  <si>
+    <t>Đạt</t>
   </si>
 </sst>
 </file>
@@ -1581,7 +1639,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1596,6 +1654,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFABF8F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1716,7 +1780,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1834,6 +1898,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2932,10 +2998,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D55"/>
+  <dimension ref="B2:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2944,7 +3010,7 @@
     <col min="4" max="4" width="48.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="57" t="s">
         <v>0</v>
       </c>
@@ -2955,7 +3021,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="57">
         <f>IF(C3="","",ROW()-ROW($B$2))</f>
         <v>1</v>
@@ -2967,7 +3033,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="57">
         <f t="shared" ref="B4:B44" si="0">IF(C4="","",ROW()-ROW($B$2))</f>
         <v>2</v>
@@ -2979,7 +3045,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="57">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2991,7 +3057,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="57">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3003,7 +3069,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="57">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3015,7 +3081,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="57">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3027,7 +3093,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="57">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3039,7 +3105,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="57">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3051,39 +3117,58 @@
         <v>493</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="57" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="57" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="57" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="57" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="59">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>494</v>
+      </c>
+      <c r="D11" s="60" t="s">
+        <v>494</v>
+      </c>
+      <c r="E11" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="57">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C12" s="57" t="s">
+        <v>496</v>
+      </c>
+      <c r="D12" s="58" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="57">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>497</v>
+      </c>
+      <c r="D13" s="58" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="57">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C14" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="D14" s="58" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3091,7 +3176,7 @@
       <c r="C15" s="57"/>
       <c r="D15" s="57"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3388,7 +3473,176 @@
     <hyperlink ref="D8" r:id="rId6"/>
     <hyperlink ref="D9" r:id="rId7"/>
     <hyperlink ref="D10" r:id="rId8"/>
+    <hyperlink ref="D11" r:id="rId9"/>
+    <hyperlink ref="D12" r:id="rId10"/>
+    <hyperlink ref="D13" r:id="rId11"/>
+    <hyperlink ref="D14" r:id="rId12"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/20150214_MyComputer/20141012_Information_v0.1.xlsx
+++ b/20150214_MyComputer/20141012_Information_v0.1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="20730" windowHeight="11595" firstSheet="8" activeTab="11"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="20730" windowHeight="11595" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Ref" sheetId="1" r:id="rId1"/>
@@ -26,12 +26,12 @@
     <definedName name="ValueDone">#REF!</definedName>
     <definedName name="ValueDone1">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="528">
   <si>
     <t>No.</t>
   </si>
@@ -1573,6 +1573,51 @@
   </si>
   <si>
     <t>Đạt</t>
+  </si>
+  <si>
+    <t>20/04/2015</t>
+  </si>
+  <si>
+    <t>Lương tháng 04/2015</t>
+  </si>
+  <si>
+    <t>Đưa Gà con</t>
+  </si>
+  <si>
+    <t>Ổ cắm</t>
+  </si>
+  <si>
+    <t>Ăn vặt</t>
+  </si>
+  <si>
+    <t>21/04/2015</t>
+  </si>
+  <si>
+    <t>Bánh xèo</t>
+  </si>
+  <si>
+    <t>22/04/2015</t>
+  </si>
+  <si>
+    <t>Chuyển khoản cho Tân</t>
+  </si>
+  <si>
+    <t>Đóng Học phí tiếng nhật</t>
+  </si>
+  <si>
+    <t>Ăn sáng (bánh cuốn)</t>
+  </si>
+  <si>
+    <t>23/04/2015</t>
+  </si>
+  <si>
+    <t>Mua mực rim từ a Quốc</t>
+  </si>
+  <si>
+    <t>Trả a Đại</t>
+  </si>
+  <si>
+    <t>Mua xe đẩy</t>
   </si>
 </sst>
 </file>
@@ -1780,7 +1825,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1900,6 +1945,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2205,7 +2253,7 @@
   <dimension ref="B2:E92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3486,7 +3534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
@@ -9303,13 +9351,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L176"/>
+  <dimension ref="B1:L249"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F147" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="F167" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C170" sqref="C170"/>
+      <selection pane="bottomRight" activeCell="E173" sqref="E173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12991,7 +13039,7 @@
         <v>-16588666</v>
       </c>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B161" s="12">
         <f t="shared" si="11"/>
         <v>158</v>
@@ -13022,7 +13070,7 @@
         <v>-16606666</v>
       </c>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B162" s="12">
         <f t="shared" si="11"/>
         <v>159</v>
@@ -13053,7 +13101,7 @@
         <v>-16806666</v>
       </c>
     </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B163" s="12">
         <f t="shared" si="11"/>
         <v>160</v>
@@ -13084,9 +13132,9 @@
         <v>-16844666</v>
       </c>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B164" s="12">
-        <f t="shared" ref="B164:B176" si="15">IF(C164="","",ROW()-ROW($B$3))</f>
+        <f t="shared" ref="B164:B227" si="15">IF(C164="","",ROW()-ROW($B$3))</f>
         <v>161</v>
       </c>
       <c r="C164" s="12" t="s">
@@ -13115,7 +13163,7 @@
         <v>-16864666</v>
       </c>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B165" s="12">
         <f t="shared" si="15"/>
         <v>162</v>
@@ -13146,7 +13194,7 @@
         <v>-16794666</v>
       </c>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B166" s="12">
         <f t="shared" si="15"/>
         <v>163</v>
@@ -13177,7 +13225,7 @@
         <v>-16844666</v>
       </c>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B167" s="12">
         <f t="shared" si="15"/>
         <v>164</v>
@@ -13208,7 +13256,7 @@
         <v>-16862666</v>
       </c>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B168" s="12">
         <f t="shared" si="15"/>
         <v>165</v>
@@ -13239,7 +13287,7 @@
         <v>-16912666</v>
       </c>
     </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B169" s="12">
         <f t="shared" si="15"/>
         <v>166</v>
@@ -13270,45 +13318,888 @@
         <v>-16939666</v>
       </c>
     </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B170" s="12" t="str">
+    <row r="170" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B170" s="61">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B171" s="12" t="str">
+        <v>167</v>
+      </c>
+      <c r="C170" s="61" t="s">
+        <v>439</v>
+      </c>
+      <c r="D170" s="62">
+        <v>0</v>
+      </c>
+      <c r="E170" s="63" t="s">
+        <v>513</v>
+      </c>
+      <c r="F170" s="62"/>
+      <c r="G170" s="62"/>
+      <c r="H170" s="62">
+        <v>-19963747</v>
+      </c>
+      <c r="I170" s="62"/>
+      <c r="J170" s="61"/>
+    </row>
+    <row r="171" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B171" s="12">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B172" s="12" t="str">
+        <v>168</v>
+      </c>
+      <c r="C171" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="D171" s="31">
+        <v>9816080</v>
+      </c>
+      <c r="E171" s="55" t="s">
+        <v>513</v>
+      </c>
+      <c r="H171" s="31">
+        <f>H170+D171</f>
+        <v>-10147667</v>
+      </c>
+    </row>
+    <row r="172" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B172" s="12">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B173" s="12" t="str">
+        <v>169</v>
+      </c>
+      <c r="C172" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D172" s="31">
+        <v>-1000000</v>
+      </c>
+      <c r="E172" s="55" t="s">
+        <v>513</v>
+      </c>
+      <c r="F172" s="31">
+        <v>1000000</v>
+      </c>
+      <c r="H172" s="31">
+        <f>H171+D172</f>
+        <v>-11147667</v>
+      </c>
+      <c r="I172" s="31">
+        <f t="shared" ref="I172:I189" si="16">SUM(F172:H172)</f>
+        <v>-10147667</v>
+      </c>
+    </row>
+    <row r="173" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B173" s="12">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B174" s="12" t="str">
+        <v>170</v>
+      </c>
+      <c r="C173" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="D173" s="31">
+        <v>500000</v>
+      </c>
+      <c r="E173" s="55" t="s">
+        <v>513</v>
+      </c>
+      <c r="F173" s="31">
+        <v>500000</v>
+      </c>
+      <c r="H173" s="31">
+        <f>H171+D172</f>
+        <v>-11147667</v>
+      </c>
+      <c r="I173" s="31">
+        <f t="shared" si="16"/>
+        <v>-10647667</v>
+      </c>
+    </row>
+    <row r="174" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B174" s="12">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B175" s="12" t="str">
+        <v>171</v>
+      </c>
+      <c r="C174" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="D174" s="31">
+        <v>-40000</v>
+      </c>
+      <c r="E174" s="55" t="s">
+        <v>513</v>
+      </c>
+      <c r="F174" s="31">
+        <f>F173+D174</f>
+        <v>460000</v>
+      </c>
+      <c r="H174" s="31">
+        <f>H171+D172</f>
+        <v>-11147667</v>
+      </c>
+      <c r="I174" s="31">
+        <f t="shared" si="16"/>
+        <v>-10687667</v>
+      </c>
+    </row>
+    <row r="175" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B175" s="12">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B176" s="12" t="str">
+        <v>172</v>
+      </c>
+      <c r="C175" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="D175" s="31">
+        <v>-23000</v>
+      </c>
+      <c r="E175" s="55" t="s">
+        <v>513</v>
+      </c>
+      <c r="F175" s="31">
+        <f>F174+D175</f>
+        <v>437000</v>
+      </c>
+      <c r="H175" s="31">
+        <f>H171+D172</f>
+        <v>-11147667</v>
+      </c>
+      <c r="I175" s="31">
+        <f t="shared" si="16"/>
+        <v>-10710667</v>
+      </c>
+    </row>
+    <row r="176" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B176" s="12">
         <f t="shared" si="15"/>
+        <v>173</v>
+      </c>
+      <c r="C176" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="D176" s="31">
+        <v>-50000</v>
+      </c>
+      <c r="E176" s="55" t="s">
+        <v>518</v>
+      </c>
+      <c r="F176" s="31">
+        <f>F175+D176</f>
+        <v>387000</v>
+      </c>
+      <c r="H176" s="31">
+        <f>H171+D172</f>
+        <v>-11147667</v>
+      </c>
+      <c r="I176" s="31">
+        <f t="shared" si="16"/>
+        <v>-10760667</v>
+      </c>
+    </row>
+    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B177" s="12">
+        <f t="shared" si="15"/>
+        <v>174</v>
+      </c>
+      <c r="C177" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="D177" s="31">
+        <v>-50000</v>
+      </c>
+      <c r="E177" s="55" t="s">
+        <v>518</v>
+      </c>
+      <c r="F177" s="31">
+        <f>F176+D177</f>
+        <v>337000</v>
+      </c>
+      <c r="H177" s="31">
+        <f>H171+D172</f>
+        <v>-11147667</v>
+      </c>
+      <c r="I177" s="31">
+        <f t="shared" si="16"/>
+        <v>-10810667</v>
+      </c>
+    </row>
+    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B178" s="12">
+        <f t="shared" si="15"/>
+        <v>175</v>
+      </c>
+      <c r="C178" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="D178" s="31">
+        <v>-50000</v>
+      </c>
+      <c r="E178" s="55" t="s">
+        <v>520</v>
+      </c>
+      <c r="F178" s="31">
+        <f>F177+D178</f>
+        <v>287000</v>
+      </c>
+      <c r="H178" s="31">
+        <f>H171+D172</f>
+        <v>-11147667</v>
+      </c>
+      <c r="I178" s="31">
+        <f t="shared" si="16"/>
+        <v>-10860667</v>
+      </c>
+    </row>
+    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B179" s="12">
+        <f t="shared" si="15"/>
+        <v>176</v>
+      </c>
+      <c r="C179" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D179" s="31">
+        <v>-2000000</v>
+      </c>
+      <c r="E179" s="55" t="s">
+        <v>520</v>
+      </c>
+      <c r="F179" s="31">
+        <f>F178-D179</f>
+        <v>2287000</v>
+      </c>
+      <c r="H179" s="31">
+        <f>H178+D179</f>
+        <v>-13147667</v>
+      </c>
+      <c r="I179" s="31">
+        <f t="shared" si="16"/>
+        <v>-10860667</v>
+      </c>
+    </row>
+    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B180" s="12">
+        <f t="shared" si="15"/>
+        <v>177</v>
+      </c>
+      <c r="C180" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="D180" s="31">
+        <v>-600000</v>
+      </c>
+      <c r="E180" s="55" t="s">
+        <v>520</v>
+      </c>
+      <c r="F180" s="31">
+        <f>F179+D180</f>
+        <v>1687000</v>
+      </c>
+      <c r="H180" s="31">
+        <f>H178+D179</f>
+        <v>-13147667</v>
+      </c>
+      <c r="I180" s="31">
+        <f t="shared" si="16"/>
+        <v>-11460667</v>
+      </c>
+    </row>
+    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B181" s="12">
+        <f t="shared" si="15"/>
+        <v>178</v>
+      </c>
+      <c r="C181" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="D181" s="31">
+        <v>-2000000</v>
+      </c>
+      <c r="E181" s="55" t="s">
+        <v>520</v>
+      </c>
+      <c r="F181" s="31">
+        <f>F179+D180</f>
+        <v>1687000</v>
+      </c>
+      <c r="H181" s="31">
+        <f>H180+D181</f>
+        <v>-15147667</v>
+      </c>
+      <c r="I181" s="31">
+        <f t="shared" si="16"/>
+        <v>-13460667</v>
+      </c>
+    </row>
+    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B182" s="12">
+        <f t="shared" si="15"/>
+        <v>179</v>
+      </c>
+      <c r="C182" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="D182" s="31">
+        <v>-1000000</v>
+      </c>
+      <c r="E182" s="55" t="s">
+        <v>520</v>
+      </c>
+      <c r="F182" s="31">
+        <f>F181+D182</f>
+        <v>687000</v>
+      </c>
+      <c r="H182" s="31">
+        <f>H180+D181</f>
+        <v>-15147667</v>
+      </c>
+      <c r="I182" s="31">
+        <f t="shared" si="16"/>
+        <v>-14460667</v>
+      </c>
+    </row>
+    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B183" s="12">
+        <f t="shared" si="15"/>
+        <v>180</v>
+      </c>
+      <c r="C183" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="D183" s="31">
+        <v>-13000</v>
+      </c>
+      <c r="E183" s="55" t="s">
+        <v>524</v>
+      </c>
+      <c r="F183" s="31">
+        <f>F182+D183</f>
+        <v>674000</v>
+      </c>
+      <c r="H183" s="31">
+        <f>H180+D181</f>
+        <v>-15147667</v>
+      </c>
+      <c r="I183" s="31">
+        <f t="shared" si="16"/>
+        <v>-14473667</v>
+      </c>
+    </row>
+    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B184" s="12">
+        <f t="shared" si="15"/>
+        <v>181</v>
+      </c>
+      <c r="C184" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="D184" s="31">
+        <v>-100000</v>
+      </c>
+      <c r="E184" s="55" t="s">
+        <v>524</v>
+      </c>
+      <c r="F184" s="31">
+        <f>F183+D184</f>
+        <v>574000</v>
+      </c>
+      <c r="H184" s="31">
+        <f>H180+D181</f>
+        <v>-15147667</v>
+      </c>
+      <c r="I184" s="31">
+        <f t="shared" si="16"/>
+        <v>-14573667</v>
+      </c>
+    </row>
+    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B185" s="12">
+        <f t="shared" si="15"/>
+        <v>182</v>
+      </c>
+      <c r="C185" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D185" s="31">
+        <v>-1000000</v>
+      </c>
+      <c r="E185" s="55" t="s">
+        <v>524</v>
+      </c>
+      <c r="F185" s="31">
+        <f>F184-D185</f>
+        <v>1574000</v>
+      </c>
+      <c r="H185" s="31">
+        <f>H184+D185</f>
+        <v>-16147667</v>
+      </c>
+      <c r="I185" s="31">
+        <f t="shared" si="16"/>
+        <v>-14573667</v>
+      </c>
+    </row>
+    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B186" s="12">
+        <f t="shared" si="15"/>
+        <v>183</v>
+      </c>
+      <c r="C186" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="D186" s="31">
+        <v>-200000</v>
+      </c>
+      <c r="E186" s="55" t="s">
+        <v>520</v>
+      </c>
+      <c r="F186" s="31">
+        <f>F185+D186</f>
+        <v>1374000</v>
+      </c>
+      <c r="H186" s="31">
+        <f>H184+D185</f>
+        <v>-16147667</v>
+      </c>
+      <c r="I186" s="31">
+        <f t="shared" si="16"/>
+        <v>-14773667</v>
+      </c>
+    </row>
+    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B187" s="12">
+        <f t="shared" si="15"/>
+        <v>184</v>
+      </c>
+      <c r="C187" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="D187" s="31">
+        <v>-580000</v>
+      </c>
+      <c r="E187" s="55" t="s">
+        <v>524</v>
+      </c>
+      <c r="F187" s="31">
+        <f>F186+D187</f>
+        <v>794000</v>
+      </c>
+      <c r="H187" s="31">
+        <f>H184+D185</f>
+        <v>-16147667</v>
+      </c>
+      <c r="I187" s="31">
+        <f t="shared" si="16"/>
+        <v>-15353667</v>
+      </c>
+    </row>
+    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B188" s="12">
+        <f t="shared" si="15"/>
+        <v>185</v>
+      </c>
+      <c r="C188" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="D188" s="31">
+        <v>-100000</v>
+      </c>
+      <c r="E188" s="55">
+        <v>42118</v>
+      </c>
+      <c r="F188" s="31">
+        <f>F187+D188</f>
+        <v>694000</v>
+      </c>
+      <c r="H188" s="31">
+        <f>H184+D185</f>
+        <v>-16147667</v>
+      </c>
+      <c r="I188" s="31">
+        <f t="shared" si="16"/>
+        <v>-15453667</v>
+      </c>
+    </row>
+    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B189" s="12">
+        <f t="shared" si="15"/>
+        <v>186</v>
+      </c>
+      <c r="C189" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="D189" s="31">
+        <v>-50000</v>
+      </c>
+      <c r="E189" s="55" t="s">
+        <v>524</v>
+      </c>
+      <c r="F189" s="31">
+        <f>F188+D189</f>
+        <v>644000</v>
+      </c>
+      <c r="H189" s="31">
+        <f>H184+D185</f>
+        <v>-16147667</v>
+      </c>
+      <c r="I189" s="31">
+        <f t="shared" si="16"/>
+        <v>-15503667</v>
+      </c>
+    </row>
+    <row r="190" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B190" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B191" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B192" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B193" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B194" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B195" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B196" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B197" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B198" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B199" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B200" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B201" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B202" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B203" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B204" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B205" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B206" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B207" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B208" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B209" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B210" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B211" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B212" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B213" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B214" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B215" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B216" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B217" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B218" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B219" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B220" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B221" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B222" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B223" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B224" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B225" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B226" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B227" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B228" s="12" t="str">
+        <f t="shared" ref="B228:B249" si="17">IF(C228="","",ROW()-ROW($B$3))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B229" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B230" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B231" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B232" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B233" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B234" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B235" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B236" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B237" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B238" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B239" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B240" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B241" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B242" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B243" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B244" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B245" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B246" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B247" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B248" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B249" s="12" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>

--- a/20150214_MyComputer/20141012_Information_v0.1.xlsx
+++ b/20150214_MyComputer/20141012_Information_v0.1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="30" windowWidth="20730" windowHeight="11595" firstSheet="2" activeTab="3"/>
@@ -26,12 +26,12 @@
     <definedName name="ValueDone">#REF!</definedName>
     <definedName name="ValueDone1">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1647" uniqueCount="529">
   <si>
     <t>No.</t>
   </si>
@@ -1618,6 +1618,9 @@
   </si>
   <si>
     <t>Mua xe đẩy</t>
+  </si>
+  <si>
+    <t>24/04/2015</t>
   </si>
 </sst>
 </file>
@@ -9354,10 +9357,10 @@
   <dimension ref="B1:L249"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F167" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F179" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E173" sqref="E173"/>
+      <selection pane="bottomRight" activeCell="C191" sqref="C191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13381,7 +13384,7 @@
         <v>-11147667</v>
       </c>
       <c r="I172" s="31">
-        <f t="shared" ref="I172:I189" si="16">SUM(F172:H172)</f>
+        <f t="shared" ref="I172:I190" si="16">SUM(F172:H172)</f>
         <v>-10147667</v>
       </c>
     </row>
@@ -13844,9 +13847,30 @@
       </c>
     </row>
     <row r="190" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B190" s="12" t="str">
+      <c r="B190" s="12">
         <f t="shared" si="15"/>
-        <v/>
+        <v>187</v>
+      </c>
+      <c r="C190" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D190" s="31">
+        <v>-181500</v>
+      </c>
+      <c r="E190" s="55" t="s">
+        <v>528</v>
+      </c>
+      <c r="F190" s="31">
+        <f>F189+D190</f>
+        <v>462500</v>
+      </c>
+      <c r="H190" s="31">
+        <f>H184+D185</f>
+        <v>-16147667</v>
+      </c>
+      <c r="I190" s="31">
+        <f t="shared" si="16"/>
+        <v>-15685167</v>
       </c>
     </row>
     <row r="191" spans="2:9" x14ac:dyDescent="0.25">

--- a/20150214_MyComputer/20141012_Information_v0.1.xlsx
+++ b/20150214_MyComputer/20141012_Information_v0.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="20730" windowHeight="11595" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="20730" windowHeight="11595" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Ref" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1647" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="532">
   <si>
     <t>No.</t>
   </si>
@@ -1621,6 +1621,15 @@
   </si>
   <si>
     <t>24/04/2015</t>
+  </si>
+  <si>
+    <t>tpbank</t>
+  </si>
+  <si>
+    <t>Not *</t>
+  </si>
+  <si>
+    <t>http://vozforums.com/</t>
   </si>
 </sst>
 </file>
@@ -3051,8 +3060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3220,20 +3229,29 @@
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="57" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C15" s="57"/>
+      <c r="B15" s="57">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C15" s="57" t="s">
+        <v>529</v>
+      </c>
       <c r="D15" s="57"/>
+      <c r="E15" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="57" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
+      <c r="B16" s="57">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C16" s="57" t="s">
+        <v>531</v>
+      </c>
+      <c r="D16" s="58" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="57" t="str">
@@ -3528,6 +3546,7 @@
     <hyperlink ref="D12" r:id="rId10"/>
     <hyperlink ref="D13" r:id="rId11"/>
     <hyperlink ref="D14" r:id="rId12"/>
+    <hyperlink ref="D16" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9356,7 +9375,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L249"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F179" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>

--- a/20150214_MyComputer/20141012_Information_v0.1.xlsx
+++ b/20150214_MyComputer/20141012_Information_v0.1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="30" windowWidth="20730" windowHeight="11595" firstSheet="5" activeTab="10"/>
@@ -26,12 +26,12 @@
     <definedName name="ValueDone">#REF!</definedName>
     <definedName name="ValueDone1">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1661" uniqueCount="537">
   <si>
     <t>No.</t>
   </si>
@@ -1630,6 +1630,21 @@
   </si>
   <si>
     <t>http://vozforums.com/</t>
+  </si>
+  <si>
+    <t>https://www.codeproject.com</t>
+  </si>
+  <si>
+    <t>http://stackexchange.com/</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/</t>
+  </si>
+  <si>
+    <t>http://www.codeguru.com/</t>
+  </si>
+  <si>
+    <t>http://forums.codeguru.com/index.php</t>
   </si>
 </sst>
 </file>
@@ -3061,7 +3076,7 @@
   <dimension ref="B2:E55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3254,44 +3269,64 @@
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="57" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
+      <c r="B17" s="57">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C17" s="57" t="s">
+        <v>532</v>
+      </c>
+      <c r="D17" s="58" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="57" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
+      <c r="B18" s="57">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C18" s="57" t="s">
+        <v>533</v>
+      </c>
+      <c r="D18" s="58" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="57" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
+      <c r="B19" s="57">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C19" s="57" t="s">
+        <v>534</v>
+      </c>
+      <c r="D19" s="58" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="57" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
+      <c r="B20" s="57">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C20" s="57" t="s">
+        <v>535</v>
+      </c>
+      <c r="D20" s="58" t="s">
+        <v>535</v>
+      </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="57" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
+      <c r="B21" s="57">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C21" s="57" t="s">
+        <v>536</v>
+      </c>
+      <c r="D21" s="58" t="s">
+        <v>536</v>
+      </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" s="57" t="str">
@@ -3547,6 +3582,11 @@
     <hyperlink ref="D13" r:id="rId11"/>
     <hyperlink ref="D14" r:id="rId12"/>
     <hyperlink ref="D16" r:id="rId13"/>
+    <hyperlink ref="D17" r:id="rId14"/>
+    <hyperlink ref="D18" r:id="rId15"/>
+    <hyperlink ref="D19" r:id="rId16"/>
+    <hyperlink ref="D20" r:id="rId17"/>
+    <hyperlink ref="D21" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
